--- a/CMPS 278 Tasksheet.xlsx
+++ b/CMPS 278 Tasksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadadada/Desktop/Spring 2023-2024/CMPS 278/GoogleDrive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C0737-3CA8-0346-BD31-70A500D56188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7A57C-2420-6046-85F6-6D86DC0FA2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{8295825E-142A-244E-8C08-5F623E8A305B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Members</t>
   </si>
@@ -104,16 +104,19 @@
     <t>Organized directories and codes</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing for errors </t>
-  </si>
-  <si>
     <t>Video editing</t>
   </si>
   <si>
-    <t>Tweaked some styling in Frontend to make more replicate to googleDrive</t>
-  </si>
-  <si>
     <t>Added remember me functionality</t>
+  </si>
+  <si>
+    <t>Tweaked some signin and signup javascript</t>
+  </si>
+  <si>
+    <t>Testing for errors and fixing</t>
+  </si>
+  <si>
+    <t>replicating signin and signup styling to make it like googledrive</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AB1DEA-B432-BF42-986D-C0B08C193B8D}">
   <dimension ref="B2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,18 +628,20 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
